--- a/tests/tests.xlsx
+++ b/tests/tests.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Khoury Course Scheduling\course-scheduler\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED628AE-C030-49C2-A50C-02044A122C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDA71B8-183C-4E9E-B840-F641B445E50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="7440" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="output" sheetId="1" r:id="rId1"/>
+    <sheet name="old" sheetId="1" r:id="rId1"/>
+    <sheet name="fixed" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>Total Existing</t>
   </si>
@@ -953,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5186,4 +5187,6808 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B8CF04-393B-49EA-8BF0-6D811810F2F4}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:H473"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>262</v>
+      </c>
+      <c r="D1">
+        <v>4.7649999999999997</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" cm="1">
+        <f t="array" ref="G1">COUNT(_xlfn._xlws.FILTER($C$2:$C$323,$A$2:$A$323=0))</f>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">COUNT(_xlfn._xlws.FILTER($C$2:$C$323,$A$2:$A$323=2))</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>731</v>
+      </c>
+      <c r="D3">
+        <v>23.863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>356</v>
+      </c>
+      <c r="D4">
+        <v>34.997999999999998</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">MIN(_xlfn._xlws.FILTER($C$1:$C$473,$A$1:$A$473=0))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" cm="1">
+        <f t="array" ref="H5">MIN(_xlfn._xlws.FILTER($C$1:$C$473,$A$1:$A$473=2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>452</v>
+      </c>
+      <c r="D6">
+        <v>12.465999999999999</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">QUARTILE(_xlfn._xlws.FILTER($C$1:$C$473,$A$1:$A$473=0),1)</f>
+        <v>143.75</v>
+      </c>
+      <c r="H6" cm="1">
+        <f t="array" ref="H6">QUARTILE(_xlfn._xlws.FILTER($C$1:$C$473,$A$1:$A$473=2),1)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>678</v>
+      </c>
+      <c r="D7">
+        <v>15.276</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7">MEDIAN(_xlfn._xlws.FILTER($C$1:$C$473,$A$1:$A$473=0))</f>
+        <v>260.5</v>
+      </c>
+      <c r="H7" cm="1">
+        <f t="array" ref="H7">MEDIAN(_xlfn._xlws.FILTER($C$1:$C$473,$A$1:$A$473=2))</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>472</v>
+      </c>
+      <c r="D8">
+        <v>27.173999999999999</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">QUARTILE(_xlfn._xlws.FILTER($C$1:$C$473,$A$1:$A$473=0),3)</f>
+        <v>447.5</v>
+      </c>
+      <c r="H8" cm="1">
+        <f t="array" ref="H8">QUARTILE(_xlfn._xlws.FILTER($C$1:$C$473,$A$1:$A$473=2),3)</f>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>55</v>
+      </c>
+      <c r="D9">
+        <v>1.5620000000000001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">MAX(_xlfn._xlws.FILTER($C$1:$C$473,$A$1:$A$473=0))</f>
+        <v>1753</v>
+      </c>
+      <c r="H9" cm="1">
+        <f t="array" ref="H9">MAX(_xlfn._xlws.FILTER($C$1:$C$473,$A$1:$A$473=2))</f>
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>730</v>
+      </c>
+      <c r="D10">
+        <v>37.994</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">AVERAGE(_xlfn._xlws.FILTER($C$1:$C$473,$A$1:$A$473=0))</f>
+        <v>332.03500000000003</v>
+      </c>
+      <c r="H10" cm="1">
+        <f t="array" ref="H10">AVERAGE(_xlfn._xlws.FILTER($C$1:$C$473,$A$1:$A$473=2))</f>
+        <v>236.25641025641025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>289</v>
+      </c>
+      <c r="D11">
+        <v>5.649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>211</v>
+      </c>
+      <c r="D12">
+        <v>12.254</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>490</v>
+      </c>
+      <c r="D13">
+        <v>7.234</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">MIN(_xlfn._xlws.FILTER($D$1:$D$473,$A$1:$A$473=0))</f>
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="H13" cm="1">
+        <f t="array" ref="H13">MIN(_xlfn._xlws.FILTER($D$1:$D$473,$A$1:$A$473=2))</f>
+        <v>2.3759999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>104</v>
+      </c>
+      <c r="D14">
+        <v>2.105</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" cm="1">
+        <f t="array" ref="G14">QUARTILE(_xlfn._xlws.FILTER($D$1:$D$473,$A$1:$A$473=0),1)</f>
+        <v>3.5877500000000002</v>
+      </c>
+      <c r="H14" cm="1">
+        <f t="array" ref="H14">QUARTILE(_xlfn._xlws.FILTER($D$1:$D$473,$A$1:$A$473=2),1)</f>
+        <v>2.524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>76</v>
+      </c>
+      <c r="D15">
+        <v>1.7370000000000001</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" cm="1">
+        <f t="array" ref="G15">MEDIAN(_xlfn._xlws.FILTER($D$1:$D$473,$A$1:$A$473=0))</f>
+        <v>7.0839999999999996</v>
+      </c>
+      <c r="H15" cm="1">
+        <f t="array" ref="H15">MEDIAN(_xlfn._xlws.FILTER($D$1:$D$473,$A$1:$A$473=2))</f>
+        <v>3.673</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>303</v>
+      </c>
+      <c r="D16">
+        <v>10.497999999999999</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" cm="1">
+        <f t="array" ref="G16">QUARTILE(_xlfn._xlws.FILTER($D$1:$D$473,$A$1:$A$473=0),3)</f>
+        <v>15.151</v>
+      </c>
+      <c r="H16" cm="1">
+        <f t="array" ref="H16">QUARTILE(_xlfn._xlws.FILTER($D$1:$D$473,$A$1:$A$473=2),3)</f>
+        <v>18.187999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>302</v>
+      </c>
+      <c r="D17">
+        <v>4.6369999999999996</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" cm="1">
+        <f t="array" ref="G17">MAX(_xlfn._xlws.FILTER($D$1:$D$473,$A$1:$A$473=0))</f>
+        <v>72.897999999999996</v>
+      </c>
+      <c r="H17" cm="1">
+        <f t="array" ref="H17">MAX(_xlfn._xlws.FILTER($D$1:$D$473,$A$1:$A$473=2))</f>
+        <v>57.55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>239</v>
+      </c>
+      <c r="D18">
+        <v>4.4160000000000004</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" cm="1">
+        <f t="array" ref="G18">AVERAGE(_xlfn._xlws.FILTER($D$1:$D$473,$A$1:$A$473=0))</f>
+        <v>11.549809999999995</v>
+      </c>
+      <c r="H18" cm="1">
+        <f t="array" ref="H18">AVERAGE(_xlfn._xlws.FILTER($D$1:$D$473,$A$1:$A$473=2))</f>
+        <v>10.621435897435894</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>616</v>
+      </c>
+      <c r="D19">
+        <v>14.727</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>323</v>
+      </c>
+      <c r="D20">
+        <v>7.1559999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>259</v>
+      </c>
+      <c r="D21">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>366</v>
+      </c>
+      <c r="D22">
+        <v>13.382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>77</v>
+      </c>
+      <c r="D23">
+        <v>1.7310000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>656</v>
+      </c>
+      <c r="D24">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>1279</v>
+      </c>
+      <c r="D25">
+        <v>17.88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>387</v>
+      </c>
+      <c r="D26">
+        <v>5.8739999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>166</v>
+      </c>
+      <c r="D27">
+        <v>15.157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>505</v>
+      </c>
+      <c r="D28">
+        <v>29.992999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>339</v>
+      </c>
+      <c r="D29">
+        <v>5.149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>161</v>
+      </c>
+      <c r="D30">
+        <v>19.388000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>183</v>
+      </c>
+      <c r="D32">
+        <v>3.117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>323</v>
+      </c>
+      <c r="D33">
+        <v>22.981999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>230</v>
+      </c>
+      <c r="D35">
+        <v>5.7750000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>369</v>
+      </c>
+      <c r="D36">
+        <v>21.748000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>125</v>
+      </c>
+      <c r="D37">
+        <v>3.8530000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0.70799999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>844</v>
+      </c>
+      <c r="D39">
+        <v>15.147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>964</v>
+      </c>
+      <c r="D40">
+        <v>17.815999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>202</v>
+      </c>
+      <c r="D41">
+        <v>10.356</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>321</v>
+      </c>
+      <c r="D42">
+        <v>7.0419999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>977</v>
+      </c>
+      <c r="D44">
+        <v>36.850999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>184</v>
+      </c>
+      <c r="D45">
+        <v>3.2669999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>157</v>
+      </c>
+      <c r="D48">
+        <v>6.1760000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0.72399999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>570</v>
+      </c>
+      <c r="D50">
+        <v>23.914000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>365</v>
+      </c>
+      <c r="D51">
+        <v>5.6040000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>230</v>
+      </c>
+      <c r="D52">
+        <v>3.819</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>467</v>
+      </c>
+      <c r="D53">
+        <v>44.220999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>615</v>
+      </c>
+      <c r="D54">
+        <v>8.9250000000000007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>316</v>
+      </c>
+      <c r="D55">
+        <v>4.9279999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>124</v>
+      </c>
+      <c r="D56">
+        <v>6.1280000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>247</v>
+      </c>
+      <c r="D57">
+        <v>26.981000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>235</v>
+      </c>
+      <c r="D58">
+        <v>17.341999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>376</v>
+      </c>
+      <c r="D59">
+        <v>25.068999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>153</v>
+      </c>
+      <c r="D60">
+        <v>3.5750000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>267</v>
+      </c>
+      <c r="D61">
+        <v>7.1550000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>289</v>
+      </c>
+      <c r="D62">
+        <v>4.5780000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>97</v>
+      </c>
+      <c r="D63">
+        <v>5.1139999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>209</v>
+      </c>
+      <c r="D64">
+        <v>8.0220000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0.74199999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>751</v>
+      </c>
+      <c r="D66">
+        <v>32.921999999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>481</v>
+      </c>
+      <c r="D67">
+        <v>7.1260000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>270</v>
+      </c>
+      <c r="D68">
+        <v>4.3360000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>401</v>
+      </c>
+      <c r="D69">
+        <v>14.86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>171</v>
+      </c>
+      <c r="D70">
+        <v>20.279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>246</v>
+      </c>
+      <c r="D71">
+        <v>17.199000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <v>286</v>
+      </c>
+      <c r="D72">
+        <v>4.569</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>94</v>
+      </c>
+      <c r="D73">
+        <v>2.871</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <v>275</v>
+      </c>
+      <c r="D74">
+        <v>11.741</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>244</v>
+      </c>
+      <c r="D75">
+        <v>3.9319999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>232</v>
+      </c>
+      <c r="D76">
+        <v>5.0149999999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>93</v>
+      </c>
+      <c r="D77">
+        <v>2.0219999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>258</v>
+      </c>
+      <c r="D78">
+        <v>4.2290000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <v>179</v>
+      </c>
+      <c r="D79">
+        <v>16.238</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <v>232</v>
+      </c>
+      <c r="D80">
+        <v>3.9580000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <v>1137</v>
+      </c>
+      <c r="D81">
+        <v>23.693999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <v>214</v>
+      </c>
+      <c r="D82">
+        <v>9.8879999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <v>245</v>
+      </c>
+      <c r="D83">
+        <v>32.823999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <v>339</v>
+      </c>
+      <c r="D84">
+        <v>11.507</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <v>270</v>
+      </c>
+      <c r="D85">
+        <v>9.6560000000000006</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <v>766</v>
+      </c>
+      <c r="D86">
+        <v>37.619999999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <v>262</v>
+      </c>
+      <c r="D87">
+        <v>5.7229999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <v>189</v>
+      </c>
+      <c r="D88">
+        <v>15.148999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <v>391</v>
+      </c>
+      <c r="D89">
+        <v>28.716999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <v>430</v>
+      </c>
+      <c r="D90">
+        <v>6.4249999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <v>508</v>
+      </c>
+      <c r="D91">
+        <v>62.273000000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <v>650</v>
+      </c>
+      <c r="D92">
+        <v>10.178000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <v>1753</v>
+      </c>
+      <c r="D93">
+        <v>43.323</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <v>608</v>
+      </c>
+      <c r="D94">
+        <v>9.5760000000000005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <v>371</v>
+      </c>
+      <c r="D95">
+        <v>5.702</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96">
+        <v>175</v>
+      </c>
+      <c r="D96">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <v>140</v>
+      </c>
+      <c r="D97">
+        <v>6.2439999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="C98">
+        <v>791</v>
+      </c>
+      <c r="D98">
+        <v>14.46</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="C99">
+        <v>331</v>
+      </c>
+      <c r="D99">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+      <c r="C100">
+        <v>17</v>
+      </c>
+      <c r="D100">
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101">
+        <v>362</v>
+      </c>
+      <c r="D101">
+        <v>5.5030000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
+      <c r="C102">
+        <v>76</v>
+      </c>
+      <c r="D102">
+        <v>1.736</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
+      <c r="C103">
+        <v>38</v>
+      </c>
+      <c r="D103">
+        <v>1.2350000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
+      </c>
+      <c r="C104">
+        <v>24</v>
+      </c>
+      <c r="D104">
+        <v>1.044</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>104</v>
+      </c>
+      <c r="C105">
+        <v>145</v>
+      </c>
+      <c r="D105">
+        <v>2.6589999999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>0</v>
+      </c>
+      <c r="B106">
+        <v>105</v>
+      </c>
+      <c r="C106">
+        <v>122</v>
+      </c>
+      <c r="D106">
+        <v>2.3420000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="B107">
+        <v>106</v>
+      </c>
+      <c r="C107">
+        <v>424</v>
+      </c>
+      <c r="D107">
+        <v>7.3920000000000003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>107</v>
+      </c>
+      <c r="C108">
+        <v>150</v>
+      </c>
+      <c r="D108">
+        <v>7.9880000000000004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>0</v>
+      </c>
+      <c r="B109">
+        <v>108</v>
+      </c>
+      <c r="C109">
+        <v>291</v>
+      </c>
+      <c r="D109">
+        <v>29.396999999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>0</v>
+      </c>
+      <c r="B110">
+        <v>109</v>
+      </c>
+      <c r="C110">
+        <v>605</v>
+      </c>
+      <c r="D110">
+        <v>14.981999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <v>110</v>
+      </c>
+      <c r="C111">
+        <v>194</v>
+      </c>
+      <c r="D111">
+        <v>3.2909999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>111</v>
+      </c>
+      <c r="C112">
+        <v>426</v>
+      </c>
+      <c r="D112">
+        <v>6.4880000000000004</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <v>112</v>
+      </c>
+      <c r="C113">
+        <v>261</v>
+      </c>
+      <c r="D113">
+        <v>4.3840000000000003</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>113</v>
+      </c>
+      <c r="C114">
+        <v>1511</v>
+      </c>
+      <c r="D114">
+        <v>31.221</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>114</v>
+      </c>
+      <c r="C115">
+        <v>232</v>
+      </c>
+      <c r="D115">
+        <v>23.657</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <v>115</v>
+      </c>
+      <c r="C116">
+        <v>650</v>
+      </c>
+      <c r="D116">
+        <v>11.076000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>0</v>
+      </c>
+      <c r="B117">
+        <v>116</v>
+      </c>
+      <c r="C117">
+        <v>148</v>
+      </c>
+      <c r="D117">
+        <v>2.7709999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>0</v>
+      </c>
+      <c r="B118">
+        <v>117</v>
+      </c>
+      <c r="C118">
+        <v>117</v>
+      </c>
+      <c r="D118">
+        <v>2.3340000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>0</v>
+      </c>
+      <c r="B119">
+        <v>118</v>
+      </c>
+      <c r="C119">
+        <v>259</v>
+      </c>
+      <c r="D119">
+        <v>9.6210000000000004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>0</v>
+      </c>
+      <c r="B120">
+        <v>119</v>
+      </c>
+      <c r="C120">
+        <v>152</v>
+      </c>
+      <c r="D120">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <v>120</v>
+      </c>
+      <c r="C121">
+        <v>182</v>
+      </c>
+      <c r="D121">
+        <v>3.5920000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>121</v>
+      </c>
+      <c r="C122">
+        <v>253</v>
+      </c>
+      <c r="D122">
+        <v>16.405999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>0</v>
+      </c>
+      <c r="B123">
+        <v>122</v>
+      </c>
+      <c r="C123">
+        <v>109</v>
+      </c>
+      <c r="D123">
+        <v>5.484</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>0</v>
+      </c>
+      <c r="B124">
+        <v>123</v>
+      </c>
+      <c r="C124">
+        <v>492</v>
+      </c>
+      <c r="D124">
+        <v>45.308</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>0</v>
+      </c>
+      <c r="B125">
+        <v>124</v>
+      </c>
+      <c r="C125">
+        <v>525</v>
+      </c>
+      <c r="D125">
+        <v>7.907</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>0</v>
+      </c>
+      <c r="B126">
+        <v>125</v>
+      </c>
+      <c r="C126">
+        <v>264</v>
+      </c>
+      <c r="D126">
+        <v>4.3129999999999997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="B127">
+        <v>126</v>
+      </c>
+      <c r="C127">
+        <v>40</v>
+      </c>
+      <c r="D127">
+        <v>1.2390000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>0</v>
+      </c>
+      <c r="B128">
+        <v>127</v>
+      </c>
+      <c r="C128">
+        <v>504</v>
+      </c>
+      <c r="D128">
+        <v>8.4830000000000005</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>0</v>
+      </c>
+      <c r="B129">
+        <v>128</v>
+      </c>
+      <c r="C129">
+        <v>218</v>
+      </c>
+      <c r="D129">
+        <v>7.8929999999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>0</v>
+      </c>
+      <c r="B130">
+        <v>129</v>
+      </c>
+      <c r="C130">
+        <v>16</v>
+      </c>
+      <c r="D130">
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>0</v>
+      </c>
+      <c r="B131">
+        <v>130</v>
+      </c>
+      <c r="C131">
+        <v>16</v>
+      </c>
+      <c r="D131">
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>0</v>
+      </c>
+      <c r="B132">
+        <v>131</v>
+      </c>
+      <c r="C132">
+        <v>246</v>
+      </c>
+      <c r="D132">
+        <v>22.303000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>0</v>
+      </c>
+      <c r="B133">
+        <v>132</v>
+      </c>
+      <c r="C133">
+        <v>679</v>
+      </c>
+      <c r="D133">
+        <v>9.8979999999999997</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>0</v>
+      </c>
+      <c r="B134">
+        <v>133</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>0</v>
+      </c>
+      <c r="B135">
+        <v>134</v>
+      </c>
+      <c r="C135">
+        <v>228</v>
+      </c>
+      <c r="D135">
+        <v>4.1879999999999997</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <v>0</v>
+      </c>
+      <c r="B136">
+        <v>135</v>
+      </c>
+      <c r="C136">
+        <v>605</v>
+      </c>
+      <c r="D136">
+        <v>10.930999999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <v>0</v>
+      </c>
+      <c r="B137">
+        <v>136</v>
+      </c>
+      <c r="C137">
+        <v>56</v>
+      </c>
+      <c r="D137">
+        <v>1.4930000000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <v>0</v>
+      </c>
+      <c r="B138">
+        <v>137</v>
+      </c>
+      <c r="C138">
+        <v>105</v>
+      </c>
+      <c r="D138">
+        <v>4.665</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <v>0</v>
+      </c>
+      <c r="B139">
+        <v>138</v>
+      </c>
+      <c r="C139">
+        <v>358</v>
+      </c>
+      <c r="D139">
+        <v>5.5549999999999997</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>0</v>
+      </c>
+      <c r="B140">
+        <v>139</v>
+      </c>
+      <c r="C140">
+        <v>1088</v>
+      </c>
+      <c r="D140">
+        <v>41.145000000000003</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>0</v>
+      </c>
+      <c r="B141">
+        <v>140</v>
+      </c>
+      <c r="C141">
+        <v>518</v>
+      </c>
+      <c r="D141">
+        <v>7.77</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <v>0</v>
+      </c>
+      <c r="B142">
+        <v>141</v>
+      </c>
+      <c r="C142">
+        <v>329</v>
+      </c>
+      <c r="D142">
+        <v>12.694000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <v>0</v>
+      </c>
+      <c r="B143">
+        <v>142</v>
+      </c>
+      <c r="C143">
+        <v>472</v>
+      </c>
+      <c r="D143">
+        <v>7.1840000000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <v>0</v>
+      </c>
+      <c r="B144">
+        <v>143</v>
+      </c>
+      <c r="C144">
+        <v>232</v>
+      </c>
+      <c r="D144">
+        <v>3.8740000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>0</v>
+      </c>
+      <c r="B145">
+        <v>144</v>
+      </c>
+      <c r="C145">
+        <v>190</v>
+      </c>
+      <c r="D145">
+        <v>17.190000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <v>0</v>
+      </c>
+      <c r="B146">
+        <v>145</v>
+      </c>
+      <c r="C146">
+        <v>380</v>
+      </c>
+      <c r="D146">
+        <v>6.7519999999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>0</v>
+      </c>
+      <c r="B147">
+        <v>146</v>
+      </c>
+      <c r="C147">
+        <v>595</v>
+      </c>
+      <c r="D147">
+        <v>20.521000000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <v>0</v>
+      </c>
+      <c r="B148">
+        <v>147</v>
+      </c>
+      <c r="C148">
+        <v>330</v>
+      </c>
+      <c r="D148">
+        <v>20.143000000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <v>0</v>
+      </c>
+      <c r="B149">
+        <v>148</v>
+      </c>
+      <c r="C149">
+        <v>364</v>
+      </c>
+      <c r="D149">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>0</v>
+      </c>
+      <c r="B150">
+        <v>149</v>
+      </c>
+      <c r="C150">
+        <v>324</v>
+      </c>
+      <c r="D150">
+        <v>17.405999999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>0</v>
+      </c>
+      <c r="B151">
+        <v>150</v>
+      </c>
+      <c r="C151">
+        <v>166</v>
+      </c>
+      <c r="D151">
+        <v>7.3570000000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <v>0</v>
+      </c>
+      <c r="B152">
+        <v>151</v>
+      </c>
+      <c r="C152">
+        <v>7</v>
+      </c>
+      <c r="D152">
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <v>0</v>
+      </c>
+      <c r="B153">
+        <v>152</v>
+      </c>
+      <c r="C153">
+        <v>227</v>
+      </c>
+      <c r="D153">
+        <v>8.5630000000000006</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A154">
+        <v>0</v>
+      </c>
+      <c r="B154">
+        <v>153</v>
+      </c>
+      <c r="C154">
+        <v>587</v>
+      </c>
+      <c r="D154">
+        <v>8.5890000000000004</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <v>0</v>
+      </c>
+      <c r="B155">
+        <v>154</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0.70699999999999996</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A156">
+        <v>0</v>
+      </c>
+      <c r="B156">
+        <v>155</v>
+      </c>
+      <c r="C156">
+        <v>86</v>
+      </c>
+      <c r="D156">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A157">
+        <v>0</v>
+      </c>
+      <c r="B157">
+        <v>156</v>
+      </c>
+      <c r="C157">
+        <v>110</v>
+      </c>
+      <c r="D157">
+        <v>6.8209999999999997</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A158">
+        <v>0</v>
+      </c>
+      <c r="B158">
+        <v>157</v>
+      </c>
+      <c r="C158">
+        <v>33</v>
+      </c>
+      <c r="D158">
+        <v>1.161</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A159">
+        <v>0</v>
+      </c>
+      <c r="B159">
+        <v>158</v>
+      </c>
+      <c r="C159">
+        <v>805</v>
+      </c>
+      <c r="D159">
+        <v>34.283999999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A160">
+        <v>0</v>
+      </c>
+      <c r="B160">
+        <v>159</v>
+      </c>
+      <c r="C160">
+        <v>446</v>
+      </c>
+      <c r="D160">
+        <v>6.7539999999999996</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A161">
+        <v>0</v>
+      </c>
+      <c r="B161">
+        <v>160</v>
+      </c>
+      <c r="C161">
+        <v>296</v>
+      </c>
+      <c r="D161">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A162">
+        <v>0</v>
+      </c>
+      <c r="B162">
+        <v>161</v>
+      </c>
+      <c r="C162">
+        <v>1063</v>
+      </c>
+      <c r="D162">
+        <v>35.567999999999998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A163">
+        <v>0</v>
+      </c>
+      <c r="B163">
+        <v>162</v>
+      </c>
+      <c r="C163">
+        <v>182</v>
+      </c>
+      <c r="D163">
+        <v>3.452</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A164">
+        <v>0</v>
+      </c>
+      <c r="B164">
+        <v>163</v>
+      </c>
+      <c r="C164">
+        <v>260</v>
+      </c>
+      <c r="D164">
+        <v>4.2779999999999996</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A165">
+        <v>0</v>
+      </c>
+      <c r="B165">
+        <v>164</v>
+      </c>
+      <c r="C165">
+        <v>298</v>
+      </c>
+      <c r="D165">
+        <v>4.7279999999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A166">
+        <v>0</v>
+      </c>
+      <c r="B166">
+        <v>165</v>
+      </c>
+      <c r="C166">
+        <v>1072</v>
+      </c>
+      <c r="D166">
+        <v>21.931000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A167">
+        <v>0</v>
+      </c>
+      <c r="B167">
+        <v>166</v>
+      </c>
+      <c r="C167">
+        <v>379</v>
+      </c>
+      <c r="D167">
+        <v>13.686999999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A168">
+        <v>0</v>
+      </c>
+      <c r="B168">
+        <v>167</v>
+      </c>
+      <c r="C168">
+        <v>538</v>
+      </c>
+      <c r="D168">
+        <v>12.198</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A169">
+        <v>0</v>
+      </c>
+      <c r="B169">
+        <v>168</v>
+      </c>
+      <c r="C169">
+        <v>1354</v>
+      </c>
+      <c r="D169">
+        <v>50.436</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A170">
+        <v>0</v>
+      </c>
+      <c r="B170">
+        <v>169</v>
+      </c>
+      <c r="C170">
+        <v>256</v>
+      </c>
+      <c r="D170">
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A171">
+        <v>0</v>
+      </c>
+      <c r="B171">
+        <v>170</v>
+      </c>
+      <c r="C171">
+        <v>29</v>
+      </c>
+      <c r="D171">
+        <v>1.123</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A172">
+        <v>0</v>
+      </c>
+      <c r="B172">
+        <v>171</v>
+      </c>
+      <c r="C172">
+        <v>520</v>
+      </c>
+      <c r="D172">
+        <v>33.334000000000003</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A173">
+        <v>0</v>
+      </c>
+      <c r="B173">
+        <v>172</v>
+      </c>
+      <c r="C173">
+        <v>233</v>
+      </c>
+      <c r="D173">
+        <v>6.0430000000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A174">
+        <v>0</v>
+      </c>
+      <c r="B174">
+        <v>173</v>
+      </c>
+      <c r="C174">
+        <v>40</v>
+      </c>
+      <c r="D174">
+        <v>1.292</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A175">
+        <v>0</v>
+      </c>
+      <c r="B175">
+        <v>174</v>
+      </c>
+      <c r="C175">
+        <v>62</v>
+      </c>
+      <c r="D175">
+        <v>1.579</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A176">
+        <v>0</v>
+      </c>
+      <c r="B176">
+        <v>175</v>
+      </c>
+      <c r="C176">
+        <v>445</v>
+      </c>
+      <c r="D176">
+        <v>33.338000000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A177">
+        <v>0</v>
+      </c>
+      <c r="B177">
+        <v>176</v>
+      </c>
+      <c r="C177">
+        <v>312</v>
+      </c>
+      <c r="D177">
+        <v>4.9850000000000003</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A178">
+        <v>0</v>
+      </c>
+      <c r="B178">
+        <v>177</v>
+      </c>
+      <c r="C178">
+        <v>6</v>
+      </c>
+      <c r="D178">
+        <v>0.79800000000000004</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A179">
+        <v>0</v>
+      </c>
+      <c r="B179">
+        <v>178</v>
+      </c>
+      <c r="C179">
+        <v>513</v>
+      </c>
+      <c r="D179">
+        <v>12.868</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A180">
+        <v>0</v>
+      </c>
+      <c r="B180">
+        <v>179</v>
+      </c>
+      <c r="C180">
+        <v>268</v>
+      </c>
+      <c r="D180">
+        <v>4.359</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A181">
+        <v>0</v>
+      </c>
+      <c r="B181">
+        <v>180</v>
+      </c>
+      <c r="C181">
+        <v>116</v>
+      </c>
+      <c r="D181">
+        <v>5.6529999999999996</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A182">
+        <v>0</v>
+      </c>
+      <c r="B182">
+        <v>181</v>
+      </c>
+      <c r="C182">
+        <v>234</v>
+      </c>
+      <c r="D182">
+        <v>3.9510000000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A183">
+        <v>0</v>
+      </c>
+      <c r="B183">
+        <v>182</v>
+      </c>
+      <c r="C183">
+        <v>202</v>
+      </c>
+      <c r="D183">
+        <v>17.553999999999998</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A184">
+        <v>0</v>
+      </c>
+      <c r="B184">
+        <v>183</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A185">
+        <v>0</v>
+      </c>
+      <c r="B185">
+        <v>184</v>
+      </c>
+      <c r="C185">
+        <v>1167</v>
+      </c>
+      <c r="D185">
+        <v>16.766999999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A186">
+        <v>0</v>
+      </c>
+      <c r="B186">
+        <v>185</v>
+      </c>
+      <c r="C186">
+        <v>267</v>
+      </c>
+      <c r="D186">
+        <v>4.3620000000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A187">
+        <v>0</v>
+      </c>
+      <c r="B187">
+        <v>186</v>
+      </c>
+      <c r="C187">
+        <v>163</v>
+      </c>
+      <c r="D187">
+        <v>2.948</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A188">
+        <v>0</v>
+      </c>
+      <c r="B188">
+        <v>187</v>
+      </c>
+      <c r="C188">
+        <v>619</v>
+      </c>
+      <c r="D188">
+        <v>58.473999999999997</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A189">
+        <v>0</v>
+      </c>
+      <c r="B189">
+        <v>188</v>
+      </c>
+      <c r="C189">
+        <v>120</v>
+      </c>
+      <c r="D189">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A190">
+        <v>0</v>
+      </c>
+      <c r="B190">
+        <v>189</v>
+      </c>
+      <c r="C190">
+        <v>163</v>
+      </c>
+      <c r="D190">
+        <v>4.5789999999999997</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A191">
+        <v>0</v>
+      </c>
+      <c r="B191">
+        <v>190</v>
+      </c>
+      <c r="C191">
+        <v>76</v>
+      </c>
+      <c r="D191">
+        <v>3.5150000000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A192">
+        <v>0</v>
+      </c>
+      <c r="B192">
+        <v>191</v>
+      </c>
+      <c r="C192">
+        <v>310</v>
+      </c>
+      <c r="D192">
+        <v>11.529</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A193">
+        <v>0</v>
+      </c>
+      <c r="B193">
+        <v>192</v>
+      </c>
+      <c r="C193">
+        <v>715</v>
+      </c>
+      <c r="D193">
+        <v>72.897999999999996</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A194">
+        <v>0</v>
+      </c>
+      <c r="B194">
+        <v>193</v>
+      </c>
+      <c r="C194">
+        <v>297</v>
+      </c>
+      <c r="D194">
+        <v>4.7270000000000003</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A195">
+        <v>0</v>
+      </c>
+      <c r="B195">
+        <v>194</v>
+      </c>
+      <c r="C195">
+        <v>66</v>
+      </c>
+      <c r="D195">
+        <v>1.597</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A196">
+        <v>0</v>
+      </c>
+      <c r="B196">
+        <v>195</v>
+      </c>
+      <c r="C196">
+        <v>656</v>
+      </c>
+      <c r="D196">
+        <v>20.87</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A197">
+        <v>0</v>
+      </c>
+      <c r="B197">
+        <v>196</v>
+      </c>
+      <c r="C197">
+        <v>98</v>
+      </c>
+      <c r="D197">
+        <v>2.0510000000000002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A198">
+        <v>0</v>
+      </c>
+      <c r="B198">
+        <v>197</v>
+      </c>
+      <c r="C198">
+        <v>6</v>
+      </c>
+      <c r="D198">
+        <v>0.79600000000000004</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A199">
+        <v>0</v>
+      </c>
+      <c r="B199">
+        <v>198</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>0.72099999999999997</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A200">
+        <v>0</v>
+      </c>
+      <c r="B200">
+        <v>199</v>
+      </c>
+      <c r="C200">
+        <v>499</v>
+      </c>
+      <c r="D200">
+        <v>9.6310000000000002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A201">
+        <v>2</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>205</v>
+      </c>
+      <c r="D201">
+        <v>18.187999999999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A202">
+        <v>2</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>250</v>
+      </c>
+      <c r="D202">
+        <v>33.048999999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A203">
+        <v>2</v>
+      </c>
+      <c r="B203">
+        <v>2</v>
+      </c>
+      <c r="C203">
+        <v>560</v>
+      </c>
+      <c r="D203">
+        <v>10.446</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A204">
+        <v>2</v>
+      </c>
+      <c r="B204">
+        <v>3</v>
+      </c>
+      <c r="C204">
+        <v>141</v>
+      </c>
+      <c r="D204">
+        <v>10.661</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A205">
+        <v>2</v>
+      </c>
+      <c r="B205">
+        <v>4</v>
+      </c>
+      <c r="C205">
+        <v>548</v>
+      </c>
+      <c r="D205">
+        <v>26.786999999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A206">
+        <v>2</v>
+      </c>
+      <c r="B206">
+        <v>5</v>
+      </c>
+      <c r="C206">
+        <v>469</v>
+      </c>
+      <c r="D206">
+        <v>33.904000000000003</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A207">
+        <v>2</v>
+      </c>
+      <c r="B207">
+        <v>6</v>
+      </c>
+      <c r="C207">
+        <v>488</v>
+      </c>
+      <c r="D207">
+        <v>16.832000000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A208">
+        <v>2</v>
+      </c>
+      <c r="B208">
+        <v>7</v>
+      </c>
+      <c r="C208">
+        <v>501</v>
+      </c>
+      <c r="D208">
+        <v>22.856999999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A209">
+        <v>2</v>
+      </c>
+      <c r="B209">
+        <v>8</v>
+      </c>
+      <c r="C209">
+        <v>508</v>
+      </c>
+      <c r="D209">
+        <v>26.452000000000002</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A210">
+        <v>2</v>
+      </c>
+      <c r="B210">
+        <v>9</v>
+      </c>
+      <c r="C210">
+        <v>133</v>
+      </c>
+      <c r="D210">
+        <v>14.192</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A211">
+        <v>2</v>
+      </c>
+      <c r="B211">
+        <v>10</v>
+      </c>
+      <c r="C211">
+        <v>465</v>
+      </c>
+      <c r="D211">
+        <v>27.632000000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A212">
+        <v>2</v>
+      </c>
+      <c r="B212">
+        <v>11</v>
+      </c>
+      <c r="C212">
+        <v>631</v>
+      </c>
+      <c r="D212">
+        <v>14.349</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A213">
+        <v>2</v>
+      </c>
+      <c r="B213">
+        <v>12</v>
+      </c>
+      <c r="C213">
+        <v>401</v>
+      </c>
+      <c r="D213">
+        <v>19.242000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A214">
+        <v>2</v>
+      </c>
+      <c r="B214">
+        <v>13</v>
+      </c>
+      <c r="C214">
+        <v>563</v>
+      </c>
+      <c r="D214">
+        <v>21.045000000000002</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A215">
+        <v>2</v>
+      </c>
+      <c r="B215">
+        <v>14</v>
+      </c>
+      <c r="C215">
+        <v>723</v>
+      </c>
+      <c r="D215">
+        <v>31.54</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A216">
+        <v>2</v>
+      </c>
+      <c r="B216">
+        <v>15</v>
+      </c>
+      <c r="C216">
+        <v>513</v>
+      </c>
+      <c r="D216">
+        <v>28.783999999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A217">
+        <v>2</v>
+      </c>
+      <c r="B217">
+        <v>16</v>
+      </c>
+      <c r="C217">
+        <v>746</v>
+      </c>
+      <c r="D217">
+        <v>20.23</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A218">
+        <v>2</v>
+      </c>
+      <c r="B218">
+        <v>17</v>
+      </c>
+      <c r="C218">
+        <v>429</v>
+      </c>
+      <c r="D218">
+        <v>11.817</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A219">
+        <v>2</v>
+      </c>
+      <c r="B219">
+        <v>18</v>
+      </c>
+      <c r="C219">
+        <v>480</v>
+      </c>
+      <c r="D219">
+        <v>27.399000000000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A220">
+        <v>2</v>
+      </c>
+      <c r="B220">
+        <v>19</v>
+      </c>
+      <c r="C220">
+        <v>753</v>
+      </c>
+      <c r="D220">
+        <v>41.198999999999998</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A221">
+        <v>2</v>
+      </c>
+      <c r="B221">
+        <v>20</v>
+      </c>
+      <c r="C221">
+        <v>908</v>
+      </c>
+      <c r="D221">
+        <v>30.198</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A222">
+        <v>2</v>
+      </c>
+      <c r="B222">
+        <v>21</v>
+      </c>
+      <c r="C222">
+        <v>520</v>
+      </c>
+      <c r="D222">
+        <v>24.93</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A223">
+        <v>2</v>
+      </c>
+      <c r="B223">
+        <v>22</v>
+      </c>
+      <c r="C223">
+        <v>358</v>
+      </c>
+      <c r="D223">
+        <v>20.712</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A224">
+        <v>2</v>
+      </c>
+      <c r="B224">
+        <v>23</v>
+      </c>
+      <c r="C224">
+        <v>849</v>
+      </c>
+      <c r="D224">
+        <v>19.634</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A225">
+        <v>2</v>
+      </c>
+      <c r="B225">
+        <v>24</v>
+      </c>
+      <c r="C225">
+        <v>760</v>
+      </c>
+      <c r="D225">
+        <v>27.204000000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A226">
+        <v>2</v>
+      </c>
+      <c r="B226">
+        <v>25</v>
+      </c>
+      <c r="C226">
+        <v>724</v>
+      </c>
+      <c r="D226">
+        <v>13.733000000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A227">
+        <v>2</v>
+      </c>
+      <c r="B227">
+        <v>26</v>
+      </c>
+      <c r="C227">
+        <v>1115</v>
+      </c>
+      <c r="D227">
+        <v>19.509</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A228">
+        <v>2</v>
+      </c>
+      <c r="B228">
+        <v>27</v>
+      </c>
+      <c r="C228">
+        <v>235</v>
+      </c>
+      <c r="D228">
+        <v>9.0239999999999991</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A229">
+        <v>2</v>
+      </c>
+      <c r="B229">
+        <v>28</v>
+      </c>
+      <c r="C229">
+        <v>244</v>
+      </c>
+      <c r="D229">
+        <v>15.593999999999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A230">
+        <v>2</v>
+      </c>
+      <c r="B230">
+        <v>29</v>
+      </c>
+      <c r="C230">
+        <v>823</v>
+      </c>
+      <c r="D230">
+        <v>29.852</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A231">
+        <v>2</v>
+      </c>
+      <c r="B231">
+        <v>30</v>
+      </c>
+      <c r="C231">
+        <v>340</v>
+      </c>
+      <c r="D231">
+        <v>32.198999999999998</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A232">
+        <v>2</v>
+      </c>
+      <c r="B232">
+        <v>31</v>
+      </c>
+      <c r="C232">
+        <v>541</v>
+      </c>
+      <c r="D232">
+        <v>30.335000000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A233">
+        <v>2</v>
+      </c>
+      <c r="B233">
+        <v>32</v>
+      </c>
+      <c r="C233">
+        <v>276</v>
+      </c>
+      <c r="D233">
+        <v>13.138</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A234">
+        <v>2</v>
+      </c>
+      <c r="B234">
+        <v>33</v>
+      </c>
+      <c r="C234">
+        <v>873</v>
+      </c>
+      <c r="D234">
+        <v>33.895000000000003</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A235">
+        <v>2</v>
+      </c>
+      <c r="B235">
+        <v>34</v>
+      </c>
+      <c r="C235">
+        <v>622</v>
+      </c>
+      <c r="D235">
+        <v>25.308</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A236">
+        <v>2</v>
+      </c>
+      <c r="B236">
+        <v>35</v>
+      </c>
+      <c r="C236">
+        <v>1451</v>
+      </c>
+      <c r="D236">
+        <v>39.109000000000002</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A237">
+        <v>2</v>
+      </c>
+      <c r="B237">
+        <v>36</v>
+      </c>
+      <c r="C237">
+        <v>205</v>
+      </c>
+      <c r="D237">
+        <v>22.335000000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A238">
+        <v>2</v>
+      </c>
+      <c r="B238">
+        <v>37</v>
+      </c>
+      <c r="C238">
+        <v>166</v>
+      </c>
+      <c r="D238">
+        <v>11.589</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A239">
+        <v>2</v>
+      </c>
+      <c r="B239">
+        <v>38</v>
+      </c>
+      <c r="C239">
+        <v>746</v>
+      </c>
+      <c r="D239">
+        <v>18.88</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A240">
+        <v>2</v>
+      </c>
+      <c r="B240">
+        <v>39</v>
+      </c>
+      <c r="C240">
+        <v>1362</v>
+      </c>
+      <c r="D240">
+        <v>24.513999999999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A241">
+        <v>2</v>
+      </c>
+      <c r="B241">
+        <v>40</v>
+      </c>
+      <c r="C241">
+        <v>266</v>
+      </c>
+      <c r="D241">
+        <v>32.402000000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A242">
+        <v>2</v>
+      </c>
+      <c r="B242">
+        <v>41</v>
+      </c>
+      <c r="C242">
+        <v>758</v>
+      </c>
+      <c r="D242">
+        <v>46.572000000000003</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A243">
+        <v>2</v>
+      </c>
+      <c r="B243">
+        <v>42</v>
+      </c>
+      <c r="C243">
+        <v>930</v>
+      </c>
+      <c r="D243">
+        <v>47.234999999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A244">
+        <v>2</v>
+      </c>
+      <c r="B244">
+        <v>43</v>
+      </c>
+      <c r="C244">
+        <v>470</v>
+      </c>
+      <c r="D244">
+        <v>29.683</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A245">
+        <v>2</v>
+      </c>
+      <c r="B245">
+        <v>44</v>
+      </c>
+      <c r="C245">
+        <v>190</v>
+      </c>
+      <c r="D245">
+        <v>15.148999999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A246">
+        <v>2</v>
+      </c>
+      <c r="B246">
+        <v>45</v>
+      </c>
+      <c r="C246">
+        <v>376</v>
+      </c>
+      <c r="D246">
+        <v>18.736999999999998</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A247">
+        <v>2</v>
+      </c>
+      <c r="B247">
+        <v>46</v>
+      </c>
+      <c r="C247">
+        <v>512</v>
+      </c>
+      <c r="D247">
+        <v>34.021999999999998</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A248">
+        <v>2</v>
+      </c>
+      <c r="B248">
+        <v>47</v>
+      </c>
+      <c r="C248">
+        <v>1020</v>
+      </c>
+      <c r="D248">
+        <v>39.097000000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A249">
+        <v>2</v>
+      </c>
+      <c r="B249">
+        <v>48</v>
+      </c>
+      <c r="C249">
+        <v>303</v>
+      </c>
+      <c r="D249">
+        <v>24.457000000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A250">
+        <v>2</v>
+      </c>
+      <c r="B250">
+        <v>49</v>
+      </c>
+      <c r="C250">
+        <v>496</v>
+      </c>
+      <c r="D250">
+        <v>14.186999999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A251">
+        <v>2</v>
+      </c>
+      <c r="B251">
+        <v>50</v>
+      </c>
+      <c r="C251">
+        <v>1136</v>
+      </c>
+      <c r="D251">
+        <v>25.925000000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A252">
+        <v>2</v>
+      </c>
+      <c r="B252">
+        <v>51</v>
+      </c>
+      <c r="C252">
+        <v>578</v>
+      </c>
+      <c r="D252">
+        <v>21.263000000000002</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A253">
+        <v>2</v>
+      </c>
+      <c r="B253">
+        <v>52</v>
+      </c>
+      <c r="C253">
+        <v>330</v>
+      </c>
+      <c r="D253">
+        <v>38.271999999999998</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A254">
+        <v>2</v>
+      </c>
+      <c r="B254">
+        <v>53</v>
+      </c>
+      <c r="C254">
+        <v>474</v>
+      </c>
+      <c r="D254">
+        <v>24.198</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A255">
+        <v>2</v>
+      </c>
+      <c r="B255">
+        <v>54</v>
+      </c>
+      <c r="C255">
+        <v>306</v>
+      </c>
+      <c r="D255">
+        <v>26.385000000000002</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A256">
+        <v>2</v>
+      </c>
+      <c r="B256">
+        <v>55</v>
+      </c>
+      <c r="C256">
+        <v>641</v>
+      </c>
+      <c r="D256">
+        <v>15.106999999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A257">
+        <v>2</v>
+      </c>
+      <c r="B257">
+        <v>56</v>
+      </c>
+      <c r="C257">
+        <v>214</v>
+      </c>
+      <c r="D257">
+        <v>25.748999999999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A258">
+        <v>2</v>
+      </c>
+      <c r="B258">
+        <v>57</v>
+      </c>
+      <c r="C258">
+        <v>629</v>
+      </c>
+      <c r="D258">
+        <v>10.877000000000001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A259">
+        <v>2</v>
+      </c>
+      <c r="B259">
+        <v>58</v>
+      </c>
+      <c r="C259">
+        <v>567</v>
+      </c>
+      <c r="D259">
+        <v>21.478999999999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A260">
+        <v>2</v>
+      </c>
+      <c r="B260">
+        <v>59</v>
+      </c>
+      <c r="C260">
+        <v>501</v>
+      </c>
+      <c r="D260">
+        <v>21.553999999999998</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A261">
+        <v>2</v>
+      </c>
+      <c r="B261">
+        <v>60</v>
+      </c>
+      <c r="C261">
+        <v>387</v>
+      </c>
+      <c r="D261">
+        <v>33.234999999999999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A262">
+        <v>2</v>
+      </c>
+      <c r="B262">
+        <v>61</v>
+      </c>
+      <c r="C262">
+        <v>180</v>
+      </c>
+      <c r="D262">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A263">
+        <v>2</v>
+      </c>
+      <c r="B263">
+        <v>62</v>
+      </c>
+      <c r="C263">
+        <v>504</v>
+      </c>
+      <c r="D263">
+        <v>32.226999999999997</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A264">
+        <v>2</v>
+      </c>
+      <c r="B264">
+        <v>63</v>
+      </c>
+      <c r="C264">
+        <v>359</v>
+      </c>
+      <c r="D264">
+        <v>32.354999999999997</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A265">
+        <v>2</v>
+      </c>
+      <c r="B265">
+        <v>64</v>
+      </c>
+      <c r="C265">
+        <v>237</v>
+      </c>
+      <c r="D265">
+        <v>24.643999999999998</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A266">
+        <v>2</v>
+      </c>
+      <c r="B266">
+        <v>65</v>
+      </c>
+      <c r="C266">
+        <v>511</v>
+      </c>
+      <c r="D266">
+        <v>35.82</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A267">
+        <v>2</v>
+      </c>
+      <c r="B267">
+        <v>66</v>
+      </c>
+      <c r="C267">
+        <v>476</v>
+      </c>
+      <c r="D267">
+        <v>17.972999999999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A268">
+        <v>2</v>
+      </c>
+      <c r="B268">
+        <v>67</v>
+      </c>
+      <c r="C268">
+        <v>1677</v>
+      </c>
+      <c r="D268">
+        <v>22.074999999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A269">
+        <v>2</v>
+      </c>
+      <c r="B269">
+        <v>68</v>
+      </c>
+      <c r="C269">
+        <v>196</v>
+      </c>
+      <c r="D269">
+        <v>22.518999999999998</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A270">
+        <v>2</v>
+      </c>
+      <c r="B270">
+        <v>69</v>
+      </c>
+      <c r="C270">
+        <v>437</v>
+      </c>
+      <c r="D270">
+        <v>25.555</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A271">
+        <v>2</v>
+      </c>
+      <c r="B271">
+        <v>70</v>
+      </c>
+      <c r="C271">
+        <v>283</v>
+      </c>
+      <c r="D271">
+        <v>20.788</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A272">
+        <v>2</v>
+      </c>
+      <c r="B272">
+        <v>71</v>
+      </c>
+      <c r="C272">
+        <v>789</v>
+      </c>
+      <c r="D272">
+        <v>18.603000000000002</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A273">
+        <v>2</v>
+      </c>
+      <c r="B273">
+        <v>72</v>
+      </c>
+      <c r="C273">
+        <v>419</v>
+      </c>
+      <c r="D273">
+        <v>18.609000000000002</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A274">
+        <v>2</v>
+      </c>
+      <c r="B274">
+        <v>73</v>
+      </c>
+      <c r="C274">
+        <v>851</v>
+      </c>
+      <c r="D274">
+        <v>35.340000000000003</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A275">
+        <v>2</v>
+      </c>
+      <c r="B275">
+        <v>74</v>
+      </c>
+      <c r="C275">
+        <v>629</v>
+      </c>
+      <c r="D275">
+        <v>32.755000000000003</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A276">
+        <v>2</v>
+      </c>
+      <c r="B276">
+        <v>75</v>
+      </c>
+      <c r="C276">
+        <v>177</v>
+      </c>
+      <c r="D276">
+        <v>9.6370000000000005</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A277">
+        <v>2</v>
+      </c>
+      <c r="B277">
+        <v>76</v>
+      </c>
+      <c r="C277">
+        <v>481</v>
+      </c>
+      <c r="D277">
+        <v>22.106999999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A278">
+        <v>2</v>
+      </c>
+      <c r="B278">
+        <v>77</v>
+      </c>
+      <c r="C278">
+        <v>638</v>
+      </c>
+      <c r="D278">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A279">
+        <v>2</v>
+      </c>
+      <c r="B279">
+        <v>78</v>
+      </c>
+      <c r="C279">
+        <v>254</v>
+      </c>
+      <c r="D279">
+        <v>33.274000000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A280">
+        <v>2</v>
+      </c>
+      <c r="B280">
+        <v>79</v>
+      </c>
+      <c r="C280">
+        <v>388</v>
+      </c>
+      <c r="D280">
+        <v>25.388000000000002</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A281">
+        <v>2</v>
+      </c>
+      <c r="B281">
+        <v>80</v>
+      </c>
+      <c r="C281">
+        <v>407</v>
+      </c>
+      <c r="D281">
+        <v>30.068999999999999</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A282">
+        <v>2</v>
+      </c>
+      <c r="B282">
+        <v>81</v>
+      </c>
+      <c r="C282">
+        <v>365</v>
+      </c>
+      <c r="D282">
+        <v>18.138000000000002</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A283">
+        <v>2</v>
+      </c>
+      <c r="B283">
+        <v>82</v>
+      </c>
+      <c r="C283">
+        <v>629</v>
+      </c>
+      <c r="D283">
+        <v>28.649000000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A284">
+        <v>2</v>
+      </c>
+      <c r="B284">
+        <v>83</v>
+      </c>
+      <c r="C284">
+        <v>709</v>
+      </c>
+      <c r="D284">
+        <v>17.693999999999999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A285">
+        <v>2</v>
+      </c>
+      <c r="B285">
+        <v>84</v>
+      </c>
+      <c r="C285">
+        <v>879</v>
+      </c>
+      <c r="D285">
+        <v>21.971</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A286">
+        <v>2</v>
+      </c>
+      <c r="B286">
+        <v>85</v>
+      </c>
+      <c r="C286">
+        <v>216</v>
+      </c>
+      <c r="D286">
+        <v>15.738</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A287">
+        <v>2</v>
+      </c>
+      <c r="B287">
+        <v>86</v>
+      </c>
+      <c r="C287">
+        <v>1136</v>
+      </c>
+      <c r="D287">
+        <v>24.129000000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A288">
+        <v>2</v>
+      </c>
+      <c r="B288">
+        <v>87</v>
+      </c>
+      <c r="C288">
+        <v>703</v>
+      </c>
+      <c r="D288">
+        <v>57.55</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A289">
+        <v>2</v>
+      </c>
+      <c r="B289">
+        <v>88</v>
+      </c>
+      <c r="C289">
+        <v>1248</v>
+      </c>
+      <c r="D289">
+        <v>46.554000000000002</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A290">
+        <v>2</v>
+      </c>
+      <c r="B290">
+        <v>89</v>
+      </c>
+      <c r="C290">
+        <v>312</v>
+      </c>
+      <c r="D290">
+        <v>31.58</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A291">
+        <v>2</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>198</v>
+      </c>
+      <c r="D291">
+        <v>3.7029999999999998</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A292">
+        <v>2</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+      <c r="C292">
+        <v>48</v>
+      </c>
+      <c r="D292">
+        <v>3.226</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A293">
+        <v>2</v>
+      </c>
+      <c r="B293">
+        <v>2</v>
+      </c>
+      <c r="C293">
+        <v>41</v>
+      </c>
+      <c r="D293">
+        <v>3.0640000000000001</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A294">
+        <v>2</v>
+      </c>
+      <c r="B294">
+        <v>3</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+      <c r="D294">
+        <v>2.4660000000000002</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A295">
+        <v>2</v>
+      </c>
+      <c r="B295">
+        <v>4</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+      <c r="D295">
+        <v>2.4220000000000002</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A296">
+        <v>2</v>
+      </c>
+      <c r="B296">
+        <v>5</v>
+      </c>
+      <c r="C296">
+        <v>47</v>
+      </c>
+      <c r="D296">
+        <v>2.4910000000000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A297">
+        <v>2</v>
+      </c>
+      <c r="B297">
+        <v>6</v>
+      </c>
+      <c r="C297">
+        <v>68</v>
+      </c>
+      <c r="D297">
+        <v>2.4929999999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A298">
+        <v>2</v>
+      </c>
+      <c r="B298">
+        <v>7</v>
+      </c>
+      <c r="C298">
+        <v>115</v>
+      </c>
+      <c r="D298">
+        <v>5.6349999999999998</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A299">
+        <v>2</v>
+      </c>
+      <c r="B299">
+        <v>8</v>
+      </c>
+      <c r="C299">
+        <v>6</v>
+      </c>
+      <c r="D299">
+        <v>2.649</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A300">
+        <v>2</v>
+      </c>
+      <c r="B300">
+        <v>9</v>
+      </c>
+      <c r="C300">
+        <v>32</v>
+      </c>
+      <c r="D300">
+        <v>2.427</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A301">
+        <v>2</v>
+      </c>
+      <c r="B301">
+        <v>10</v>
+      </c>
+      <c r="C301">
+        <v>248</v>
+      </c>
+      <c r="D301">
+        <v>5.5990000000000002</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A302">
+        <v>2</v>
+      </c>
+      <c r="B302">
+        <v>11</v>
+      </c>
+      <c r="C302">
+        <v>0</v>
+      </c>
+      <c r="D302">
+        <v>2.4460000000000002</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A303">
+        <v>2</v>
+      </c>
+      <c r="B303">
+        <v>12</v>
+      </c>
+      <c r="C303">
+        <v>476</v>
+      </c>
+      <c r="D303">
+        <v>11.545999999999999</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A304">
+        <v>2</v>
+      </c>
+      <c r="B304">
+        <v>13</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+      <c r="D304">
+        <v>2.4380000000000002</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A305">
+        <v>2</v>
+      </c>
+      <c r="B305">
+        <v>14</v>
+      </c>
+      <c r="C305">
+        <v>75</v>
+      </c>
+      <c r="D305">
+        <v>3.1819999999999999</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A306">
+        <v>2</v>
+      </c>
+      <c r="B306">
+        <v>15</v>
+      </c>
+      <c r="C306">
+        <v>65</v>
+      </c>
+      <c r="D306">
+        <v>2.4849999999999999</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A307">
+        <v>2</v>
+      </c>
+      <c r="B307">
+        <v>16</v>
+      </c>
+      <c r="C307">
+        <v>6</v>
+      </c>
+      <c r="D307">
+        <v>2.6309999999999998</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A308">
+        <v>2</v>
+      </c>
+      <c r="B308">
+        <v>17</v>
+      </c>
+      <c r="C308">
+        <v>84</v>
+      </c>
+      <c r="D308">
+        <v>3.0510000000000002</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A309">
+        <v>2</v>
+      </c>
+      <c r="B309">
+        <v>18</v>
+      </c>
+      <c r="C309">
+        <v>255</v>
+      </c>
+      <c r="D309">
+        <v>11.262</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A310">
+        <v>2</v>
+      </c>
+      <c r="B310">
+        <v>19</v>
+      </c>
+      <c r="C310">
+        <v>16</v>
+      </c>
+      <c r="D310">
+        <v>2.6989999999999998</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A311">
+        <v>2</v>
+      </c>
+      <c r="B311">
+        <v>20</v>
+      </c>
+      <c r="C311">
+        <v>41</v>
+      </c>
+      <c r="D311">
+        <v>3.0249999999999999</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A312">
+        <v>2</v>
+      </c>
+      <c r="B312">
+        <v>21</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+      <c r="D312">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A313">
+        <v>2</v>
+      </c>
+      <c r="B313">
+        <v>22</v>
+      </c>
+      <c r="C313">
+        <v>66</v>
+      </c>
+      <c r="D313">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A314">
+        <v>2</v>
+      </c>
+      <c r="B314">
+        <v>23</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+      <c r="D314">
+        <v>2.6779999999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A315">
+        <v>2</v>
+      </c>
+      <c r="B315">
+        <v>24</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+      <c r="D315">
+        <v>2.516</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A316">
+        <v>2</v>
+      </c>
+      <c r="B316">
+        <v>25</v>
+      </c>
+      <c r="C316">
+        <v>10</v>
+      </c>
+      <c r="D316">
+        <v>2.5379999999999998</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A317">
+        <v>2</v>
+      </c>
+      <c r="B317">
+        <v>26</v>
+      </c>
+      <c r="C317">
+        <v>109</v>
+      </c>
+      <c r="D317">
+        <v>3.052</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A318">
+        <v>2</v>
+      </c>
+      <c r="B318">
+        <v>27</v>
+      </c>
+      <c r="C318">
+        <v>65</v>
+      </c>
+      <c r="D318">
+        <v>3.2309999999999999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A319">
+        <v>2</v>
+      </c>
+      <c r="B319">
+        <v>28</v>
+      </c>
+      <c r="C319">
+        <v>13</v>
+      </c>
+      <c r="D319">
+        <v>2.5619999999999998</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A320">
+        <v>2</v>
+      </c>
+      <c r="B320">
+        <v>29</v>
+      </c>
+      <c r="C320">
+        <v>0</v>
+      </c>
+      <c r="D320">
+        <v>2.6659999999999999</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A321">
+        <v>2</v>
+      </c>
+      <c r="B321">
+        <v>30</v>
+      </c>
+      <c r="C321">
+        <v>269</v>
+      </c>
+      <c r="D321">
+        <v>11.615</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A322">
+        <v>2</v>
+      </c>
+      <c r="B322">
+        <v>31</v>
+      </c>
+      <c r="C322">
+        <v>61</v>
+      </c>
+      <c r="D322">
+        <v>2.633</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A323">
+        <v>2</v>
+      </c>
+      <c r="B323">
+        <v>32</v>
+      </c>
+      <c r="C323">
+        <v>0</v>
+      </c>
+      <c r="D323">
+        <v>2.633</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A324">
+        <v>2</v>
+      </c>
+      <c r="B324">
+        <v>33</v>
+      </c>
+      <c r="C324">
+        <v>104</v>
+      </c>
+      <c r="D324">
+        <v>2.7040000000000002</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A325">
+        <v>2</v>
+      </c>
+      <c r="B325">
+        <v>34</v>
+      </c>
+      <c r="C325">
+        <v>5</v>
+      </c>
+      <c r="D325">
+        <v>2.6030000000000002</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A326">
+        <v>2</v>
+      </c>
+      <c r="B326">
+        <v>35</v>
+      </c>
+      <c r="C326">
+        <v>352</v>
+      </c>
+      <c r="D326">
+        <v>6.4809999999999999</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A327">
+        <v>2</v>
+      </c>
+      <c r="B327">
+        <v>36</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+      <c r="D327">
+        <v>2.6269999999999998</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A328">
+        <v>2</v>
+      </c>
+      <c r="B328">
+        <v>37</v>
+      </c>
+      <c r="C328">
+        <v>3</v>
+      </c>
+      <c r="D328">
+        <v>2.6070000000000002</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A329">
+        <v>2</v>
+      </c>
+      <c r="B329">
+        <v>38</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+      <c r="D329">
+        <v>2.6749999999999998</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A330">
+        <v>2</v>
+      </c>
+      <c r="B330">
+        <v>39</v>
+      </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
+      <c r="D330">
+        <v>2.6539999999999999</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A331">
+        <v>2</v>
+      </c>
+      <c r="B331">
+        <v>40</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+      <c r="D331">
+        <v>2.6680000000000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A332">
+        <v>2</v>
+      </c>
+      <c r="B332">
+        <v>41</v>
+      </c>
+      <c r="C332">
+        <v>274</v>
+      </c>
+      <c r="D332">
+        <v>8.359</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A333">
+        <v>2</v>
+      </c>
+      <c r="B333">
+        <v>42</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+      <c r="D333">
+        <v>2.5960000000000001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A334">
+        <v>2</v>
+      </c>
+      <c r="B334">
+        <v>43</v>
+      </c>
+      <c r="C334">
+        <v>0</v>
+      </c>
+      <c r="D334">
+        <v>2.4580000000000002</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A335">
+        <v>2</v>
+      </c>
+      <c r="B335">
+        <v>44</v>
+      </c>
+      <c r="C335">
+        <v>61</v>
+      </c>
+      <c r="D335">
+        <v>3.7490000000000001</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A336">
+        <v>2</v>
+      </c>
+      <c r="B336">
+        <v>45</v>
+      </c>
+      <c r="C336">
+        <v>62</v>
+      </c>
+      <c r="D336">
+        <v>3.1040000000000001</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A337">
+        <v>2</v>
+      </c>
+      <c r="B337">
+        <v>46</v>
+      </c>
+      <c r="C337">
+        <v>256</v>
+      </c>
+      <c r="D337">
+        <v>6.1639999999999997</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A338">
+        <v>2</v>
+      </c>
+      <c r="B338">
+        <v>47</v>
+      </c>
+      <c r="C338">
+        <v>200</v>
+      </c>
+      <c r="D338">
+        <v>4.5149999999999997</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A339">
+        <v>2</v>
+      </c>
+      <c r="B339">
+        <v>48</v>
+      </c>
+      <c r="C339">
+        <v>122</v>
+      </c>
+      <c r="D339">
+        <v>3.121</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A340">
+        <v>2</v>
+      </c>
+      <c r="B340">
+        <v>49</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+      <c r="D340">
+        <v>2.4710000000000001</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A341">
+        <v>2</v>
+      </c>
+      <c r="B341">
+        <v>50</v>
+      </c>
+      <c r="C341">
+        <v>132</v>
+      </c>
+      <c r="D341">
+        <v>2.8820000000000001</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A342">
+        <v>2</v>
+      </c>
+      <c r="B342">
+        <v>51</v>
+      </c>
+      <c r="C342">
+        <v>47</v>
+      </c>
+      <c r="D342">
+        <v>2.5179999999999998</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A343">
+        <v>2</v>
+      </c>
+      <c r="B343">
+        <v>52</v>
+      </c>
+      <c r="C343">
+        <v>67</v>
+      </c>
+      <c r="D343">
+        <v>2.4849999999999999</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A344">
+        <v>2</v>
+      </c>
+      <c r="B344">
+        <v>53</v>
+      </c>
+      <c r="C344">
+        <v>198</v>
+      </c>
+      <c r="D344">
+        <v>4.0880000000000001</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A345">
+        <v>2</v>
+      </c>
+      <c r="B345">
+        <v>54</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+      <c r="D345">
+        <v>2.5510000000000002</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A346">
+        <v>2</v>
+      </c>
+      <c r="B346">
+        <v>55</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+      <c r="D346">
+        <v>2.4750000000000001</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A347">
+        <v>2</v>
+      </c>
+      <c r="B347">
+        <v>56</v>
+      </c>
+      <c r="C347">
+        <v>173</v>
+      </c>
+      <c r="D347">
+        <v>3.819</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A348">
+        <v>2</v>
+      </c>
+      <c r="B348">
+        <v>57</v>
+      </c>
+      <c r="C348">
+        <v>57</v>
+      </c>
+      <c r="D348">
+        <v>4.1529999999999996</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A349">
+        <v>2</v>
+      </c>
+      <c r="B349">
+        <v>58</v>
+      </c>
+      <c r="C349">
+        <v>0</v>
+      </c>
+      <c r="D349">
+        <v>2.4969999999999999</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A350">
+        <v>2</v>
+      </c>
+      <c r="B350">
+        <v>59</v>
+      </c>
+      <c r="C350">
+        <v>90</v>
+      </c>
+      <c r="D350">
+        <v>4.6779999999999999</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A351">
+        <v>2</v>
+      </c>
+      <c r="B351">
+        <v>60</v>
+      </c>
+      <c r="C351">
+        <v>149</v>
+      </c>
+      <c r="D351">
+        <v>3.1419999999999999</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A352">
+        <v>2</v>
+      </c>
+      <c r="B352">
+        <v>61</v>
+      </c>
+      <c r="C352">
+        <v>83</v>
+      </c>
+      <c r="D352">
+        <v>2.605</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A353">
+        <v>2</v>
+      </c>
+      <c r="B353">
+        <v>62</v>
+      </c>
+      <c r="C353">
+        <v>240</v>
+      </c>
+      <c r="D353">
+        <v>5.7789999999999999</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A354">
+        <v>2</v>
+      </c>
+      <c r="B354">
+        <v>63</v>
+      </c>
+      <c r="C354">
+        <v>27</v>
+      </c>
+      <c r="D354">
+        <v>2.9649999999999999</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A355">
+        <v>2</v>
+      </c>
+      <c r="B355">
+        <v>64</v>
+      </c>
+      <c r="C355">
+        <v>154</v>
+      </c>
+      <c r="D355">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A356">
+        <v>2</v>
+      </c>
+      <c r="B356">
+        <v>65</v>
+      </c>
+      <c r="C356">
+        <v>203</v>
+      </c>
+      <c r="D356">
+        <v>4.9580000000000002</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A357">
+        <v>2</v>
+      </c>
+      <c r="B357">
+        <v>66</v>
+      </c>
+      <c r="C357">
+        <v>87</v>
+      </c>
+      <c r="D357">
+        <v>3.3260000000000001</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A358">
+        <v>2</v>
+      </c>
+      <c r="B358">
+        <v>67</v>
+      </c>
+      <c r="C358">
+        <v>155</v>
+      </c>
+      <c r="D358">
+        <v>3.9529999999999998</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A359">
+        <v>2</v>
+      </c>
+      <c r="B359">
+        <v>68</v>
+      </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
+      <c r="D359">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A360">
+        <v>2</v>
+      </c>
+      <c r="B360">
+        <v>69</v>
+      </c>
+      <c r="C360">
+        <v>229</v>
+      </c>
+      <c r="D360">
+        <v>5.173</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A361">
+        <v>2</v>
+      </c>
+      <c r="B361">
+        <v>70</v>
+      </c>
+      <c r="C361">
+        <v>56</v>
+      </c>
+      <c r="D361">
+        <v>2.5190000000000001</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A362">
+        <v>2</v>
+      </c>
+      <c r="B362">
+        <v>71</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+      <c r="D362">
+        <v>2.504</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A363">
+        <v>2</v>
+      </c>
+      <c r="B363">
+        <v>72</v>
+      </c>
+      <c r="C363">
+        <v>65</v>
+      </c>
+      <c r="D363">
+        <v>3.1989999999999998</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A364">
+        <v>2</v>
+      </c>
+      <c r="B364">
+        <v>73</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+      <c r="D364">
+        <v>2.4969999999999999</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A365">
+        <v>2</v>
+      </c>
+      <c r="B365">
+        <v>74</v>
+      </c>
+      <c r="C365">
+        <v>81</v>
+      </c>
+      <c r="D365">
+        <v>2.6059999999999999</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A366">
+        <v>2</v>
+      </c>
+      <c r="B366">
+        <v>75</v>
+      </c>
+      <c r="C366">
+        <v>86</v>
+      </c>
+      <c r="D366">
+        <v>2.6749999999999998</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A367">
+        <v>2</v>
+      </c>
+      <c r="B367">
+        <v>76</v>
+      </c>
+      <c r="C367">
+        <v>40</v>
+      </c>
+      <c r="D367">
+        <v>2.746</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A368">
+        <v>2</v>
+      </c>
+      <c r="B368">
+        <v>77</v>
+      </c>
+      <c r="C368">
+        <v>199</v>
+      </c>
+      <c r="D368">
+        <v>4.8250000000000002</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A369">
+        <v>2</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+      <c r="D369">
+        <v>2.3759999999999999</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A370">
+        <v>2</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+      <c r="C370">
+        <v>166</v>
+      </c>
+      <c r="D370">
+        <v>3.948</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A371">
+        <v>2</v>
+      </c>
+      <c r="B371">
+        <v>2</v>
+      </c>
+      <c r="C371">
+        <v>48</v>
+      </c>
+      <c r="D371">
+        <v>2.4630000000000001</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A372">
+        <v>2</v>
+      </c>
+      <c r="B372">
+        <v>3</v>
+      </c>
+      <c r="C372">
+        <v>8</v>
+      </c>
+      <c r="D372">
+        <v>2.4660000000000002</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A373">
+        <v>2</v>
+      </c>
+      <c r="B373">
+        <v>4</v>
+      </c>
+      <c r="C373">
+        <v>92</v>
+      </c>
+      <c r="D373">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A374">
+        <v>2</v>
+      </c>
+      <c r="B374">
+        <v>5</v>
+      </c>
+      <c r="C374">
+        <v>43</v>
+      </c>
+      <c r="D374">
+        <v>2.4590000000000001</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A375">
+        <v>2</v>
+      </c>
+      <c r="B375">
+        <v>6</v>
+      </c>
+      <c r="C375">
+        <v>177</v>
+      </c>
+      <c r="D375">
+        <v>3.843</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A376">
+        <v>2</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+      <c r="C376">
+        <v>10</v>
+      </c>
+      <c r="D376">
+        <v>2.4319999999999999</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A377">
+        <v>2</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+      <c r="C377">
+        <v>0</v>
+      </c>
+      <c r="D377">
+        <v>2.4279999999999999</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A378">
+        <v>2</v>
+      </c>
+      <c r="B378">
+        <v>2</v>
+      </c>
+      <c r="C378">
+        <v>8</v>
+      </c>
+      <c r="D378">
+        <v>2.4569999999999999</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A379">
+        <v>2</v>
+      </c>
+      <c r="B379">
+        <v>3</v>
+      </c>
+      <c r="C379">
+        <v>100</v>
+      </c>
+      <c r="D379">
+        <v>2.7589999999999999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A380">
+        <v>2</v>
+      </c>
+      <c r="B380">
+        <v>4</v>
+      </c>
+      <c r="C380">
+        <v>47</v>
+      </c>
+      <c r="D380">
+        <v>2.7869999999999999</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A381">
+        <v>2</v>
+      </c>
+      <c r="B381">
+        <v>5</v>
+      </c>
+      <c r="C381">
+        <v>141</v>
+      </c>
+      <c r="D381">
+        <v>3.722</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A382">
+        <v>2</v>
+      </c>
+      <c r="B382">
+        <v>6</v>
+      </c>
+      <c r="C382">
+        <v>22</v>
+      </c>
+      <c r="D382">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A383">
+        <v>2</v>
+      </c>
+      <c r="B383">
+        <v>7</v>
+      </c>
+      <c r="C383">
+        <v>244</v>
+      </c>
+      <c r="D383">
+        <v>4.6840000000000002</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A384">
+        <v>2</v>
+      </c>
+      <c r="B384">
+        <v>8</v>
+      </c>
+      <c r="C384">
+        <v>138</v>
+      </c>
+      <c r="D384">
+        <v>3.2690000000000001</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A385">
+        <v>2</v>
+      </c>
+      <c r="B385">
+        <v>9</v>
+      </c>
+      <c r="C385">
+        <v>114</v>
+      </c>
+      <c r="D385">
+        <v>3.3879999999999999</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A386">
+        <v>2</v>
+      </c>
+      <c r="B386">
+        <v>10</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A387">
+        <v>2</v>
+      </c>
+      <c r="B387">
+        <v>11</v>
+      </c>
+      <c r="C387">
+        <v>82</v>
+      </c>
+      <c r="D387">
+        <v>3.673</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A388">
+        <v>2</v>
+      </c>
+      <c r="B388">
+        <v>12</v>
+      </c>
+      <c r="C388">
+        <v>45</v>
+      </c>
+      <c r="D388">
+        <v>2.4279999999999999</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A389">
+        <v>2</v>
+      </c>
+      <c r="B389">
+        <v>13</v>
+      </c>
+      <c r="C389">
+        <v>0</v>
+      </c>
+      <c r="D389">
+        <v>2.4350000000000001</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A390">
+        <v>2</v>
+      </c>
+      <c r="B390">
+        <v>14</v>
+      </c>
+      <c r="C390">
+        <v>117</v>
+      </c>
+      <c r="D390">
+        <v>2.6680000000000001</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A391">
+        <v>2</v>
+      </c>
+      <c r="B391">
+        <v>15</v>
+      </c>
+      <c r="C391">
+        <v>0</v>
+      </c>
+      <c r="D391">
+        <v>2.4540000000000002</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A392">
+        <v>2</v>
+      </c>
+      <c r="B392">
+        <v>16</v>
+      </c>
+      <c r="C392">
+        <v>141</v>
+      </c>
+      <c r="D392">
+        <v>4.0359999999999996</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A393">
+        <v>2</v>
+      </c>
+      <c r="B393">
+        <v>17</v>
+      </c>
+      <c r="C393">
+        <v>149</v>
+      </c>
+      <c r="D393">
+        <v>4.1280000000000001</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A394">
+        <v>2</v>
+      </c>
+      <c r="B394">
+        <v>18</v>
+      </c>
+      <c r="C394">
+        <v>0</v>
+      </c>
+      <c r="D394">
+        <v>2.6389999999999998</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A395">
+        <v>2</v>
+      </c>
+      <c r="B395">
+        <v>19</v>
+      </c>
+      <c r="C395">
+        <v>48</v>
+      </c>
+      <c r="D395">
+        <v>2.4660000000000002</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A396">
+        <v>2</v>
+      </c>
+      <c r="B396">
+        <v>20</v>
+      </c>
+      <c r="C396">
+        <v>21</v>
+      </c>
+      <c r="D396">
+        <v>2.4369999999999998</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A397">
+        <v>2</v>
+      </c>
+      <c r="B397">
+        <v>21</v>
+      </c>
+      <c r="C397">
+        <v>79</v>
+      </c>
+      <c r="D397">
+        <v>3.266</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A398">
+        <v>2</v>
+      </c>
+      <c r="B398">
+        <v>22</v>
+      </c>
+      <c r="C398">
+        <v>85</v>
+      </c>
+      <c r="D398">
+        <v>2.528</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A399">
+        <v>2</v>
+      </c>
+      <c r="B399">
+        <v>23</v>
+      </c>
+      <c r="C399">
+        <v>40</v>
+      </c>
+      <c r="D399">
+        <v>2.484</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A400">
+        <v>2</v>
+      </c>
+      <c r="B400">
+        <v>24</v>
+      </c>
+      <c r="C400">
+        <v>128</v>
+      </c>
+      <c r="D400">
+        <v>3.7029999999999998</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A401">
+        <v>2</v>
+      </c>
+      <c r="B401">
+        <v>25</v>
+      </c>
+      <c r="C401">
+        <v>260</v>
+      </c>
+      <c r="D401">
+        <v>5.9770000000000003</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A402">
+        <v>2</v>
+      </c>
+      <c r="B402">
+        <v>26</v>
+      </c>
+      <c r="C402">
+        <v>32</v>
+      </c>
+      <c r="D402">
+        <v>2.456</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A403">
+        <v>2</v>
+      </c>
+      <c r="B403">
+        <v>27</v>
+      </c>
+      <c r="C403">
+        <v>0</v>
+      </c>
+      <c r="D403">
+        <v>2.476</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A404">
+        <v>2</v>
+      </c>
+      <c r="B404">
+        <v>28</v>
+      </c>
+      <c r="C404">
+        <v>48</v>
+      </c>
+      <c r="D404">
+        <v>2.5009999999999999</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A405">
+        <v>2</v>
+      </c>
+      <c r="B405">
+        <v>29</v>
+      </c>
+      <c r="C405">
+        <v>117</v>
+      </c>
+      <c r="D405">
+        <v>3.3679999999999999</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A406">
+        <v>2</v>
+      </c>
+      <c r="B406">
+        <v>30</v>
+      </c>
+      <c r="C406">
+        <v>203</v>
+      </c>
+      <c r="D406">
+        <v>4.8310000000000004</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A407">
+        <v>2</v>
+      </c>
+      <c r="B407">
+        <v>31</v>
+      </c>
+      <c r="C407">
+        <v>0</v>
+      </c>
+      <c r="D407">
+        <v>2.4950000000000001</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A408">
+        <v>2</v>
+      </c>
+      <c r="B408">
+        <v>32</v>
+      </c>
+      <c r="C408">
+        <v>54</v>
+      </c>
+      <c r="D408">
+        <v>2.5129999999999999</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A409">
+        <v>2</v>
+      </c>
+      <c r="B409">
+        <v>33</v>
+      </c>
+      <c r="C409">
+        <v>34</v>
+      </c>
+      <c r="D409">
+        <v>2.4470000000000001</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A410">
+        <v>2</v>
+      </c>
+      <c r="B410">
+        <v>34</v>
+      </c>
+      <c r="C410">
+        <v>219</v>
+      </c>
+      <c r="D410">
+        <v>5.1040000000000001</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A411">
+        <v>2</v>
+      </c>
+      <c r="B411">
+        <v>35</v>
+      </c>
+      <c r="C411">
+        <v>0</v>
+      </c>
+      <c r="D411">
+        <v>2.4769999999999999</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A412">
+        <v>2</v>
+      </c>
+      <c r="B412">
+        <v>36</v>
+      </c>
+      <c r="C412">
+        <v>67</v>
+      </c>
+      <c r="D412">
+        <v>4.6079999999999997</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A413">
+        <v>2</v>
+      </c>
+      <c r="B413">
+        <v>37</v>
+      </c>
+      <c r="C413">
+        <v>91</v>
+      </c>
+      <c r="D413">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A414">
+        <v>2</v>
+      </c>
+      <c r="B414">
+        <v>38</v>
+      </c>
+      <c r="C414">
+        <v>0</v>
+      </c>
+      <c r="D414">
+        <v>2.476</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A415">
+        <v>2</v>
+      </c>
+      <c r="B415">
+        <v>39</v>
+      </c>
+      <c r="C415">
+        <v>0</v>
+      </c>
+      <c r="D415">
+        <v>2.6110000000000002</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A416">
+        <v>2</v>
+      </c>
+      <c r="B416">
+        <v>40</v>
+      </c>
+      <c r="C416">
+        <v>106</v>
+      </c>
+      <c r="D416">
+        <v>3.9079999999999999</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A417">
+        <v>2</v>
+      </c>
+      <c r="B417">
+        <v>41</v>
+      </c>
+      <c r="C417">
+        <v>22</v>
+      </c>
+      <c r="D417">
+        <v>2.4740000000000002</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A418">
+        <v>2</v>
+      </c>
+      <c r="B418">
+        <v>42</v>
+      </c>
+      <c r="C418">
+        <v>2</v>
+      </c>
+      <c r="D418">
+        <v>2.4670000000000001</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A419">
+        <v>2</v>
+      </c>
+      <c r="B419">
+        <v>43</v>
+      </c>
+      <c r="C419">
+        <v>62</v>
+      </c>
+      <c r="D419">
+        <v>3.3730000000000002</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A420">
+        <v>2</v>
+      </c>
+      <c r="B420">
+        <v>44</v>
+      </c>
+      <c r="C420">
+        <v>445</v>
+      </c>
+      <c r="D420">
+        <v>7.726</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A421">
+        <v>2</v>
+      </c>
+      <c r="B421">
+        <v>45</v>
+      </c>
+      <c r="C421">
+        <v>0</v>
+      </c>
+      <c r="D421">
+        <v>2.4830000000000001</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A422">
+        <v>2</v>
+      </c>
+      <c r="B422">
+        <v>46</v>
+      </c>
+      <c r="C422">
+        <v>23</v>
+      </c>
+      <c r="D422">
+        <v>2.6030000000000002</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A423">
+        <v>2</v>
+      </c>
+      <c r="B423">
+        <v>47</v>
+      </c>
+      <c r="C423">
+        <v>216</v>
+      </c>
+      <c r="D423">
+        <v>3.9649999999999999</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A424">
+        <v>2</v>
+      </c>
+      <c r="B424">
+        <v>48</v>
+      </c>
+      <c r="C424">
+        <v>194</v>
+      </c>
+      <c r="D424">
+        <v>4.4169999999999998</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A425">
+        <v>2</v>
+      </c>
+      <c r="B425">
+        <v>49</v>
+      </c>
+      <c r="C425">
+        <v>181</v>
+      </c>
+      <c r="D425">
+        <v>7.3689999999999998</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A426">
+        <v>2</v>
+      </c>
+      <c r="B426">
+        <v>50</v>
+      </c>
+      <c r="C426">
+        <v>47</v>
+      </c>
+      <c r="D426">
+        <v>2.556</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A427">
+        <v>2</v>
+      </c>
+      <c r="B427">
+        <v>51</v>
+      </c>
+      <c r="C427">
+        <v>0</v>
+      </c>
+      <c r="D427">
+        <v>2.496</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A428">
+        <v>2</v>
+      </c>
+      <c r="B428">
+        <v>52</v>
+      </c>
+      <c r="C428">
+        <v>0</v>
+      </c>
+      <c r="D428">
+        <v>2.476</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A429">
+        <v>2</v>
+      </c>
+      <c r="B429">
+        <v>53</v>
+      </c>
+      <c r="C429">
+        <v>15</v>
+      </c>
+      <c r="D429">
+        <v>2.423</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A430">
+        <v>2</v>
+      </c>
+      <c r="B430">
+        <v>54</v>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
+      <c r="D430">
+        <v>2.4950000000000001</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A431">
+        <v>2</v>
+      </c>
+      <c r="B431">
+        <v>55</v>
+      </c>
+      <c r="C431">
+        <v>125</v>
+      </c>
+      <c r="D431">
+        <v>2.8140000000000001</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A432">
+        <v>2</v>
+      </c>
+      <c r="B432">
+        <v>56</v>
+      </c>
+      <c r="C432">
+        <v>0</v>
+      </c>
+      <c r="D432">
+        <v>2.496</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A433">
+        <v>2</v>
+      </c>
+      <c r="B433">
+        <v>57</v>
+      </c>
+      <c r="C433">
+        <v>0</v>
+      </c>
+      <c r="D433">
+        <v>2.4950000000000001</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A434">
+        <v>2</v>
+      </c>
+      <c r="B434">
+        <v>58</v>
+      </c>
+      <c r="C434">
+        <v>670</v>
+      </c>
+      <c r="D434">
+        <v>17.739999999999998</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A435">
+        <v>2</v>
+      </c>
+      <c r="B435">
+        <v>59</v>
+      </c>
+      <c r="C435">
+        <v>49</v>
+      </c>
+      <c r="D435">
+        <v>2.879</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A436">
+        <v>2</v>
+      </c>
+      <c r="B436">
+        <v>60</v>
+      </c>
+      <c r="C436">
+        <v>335</v>
+      </c>
+      <c r="D436">
+        <v>7.7549999999999999</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A437">
+        <v>2</v>
+      </c>
+      <c r="B437">
+        <v>61</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+      <c r="D437">
+        <v>2.472</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A438">
+        <v>2</v>
+      </c>
+      <c r="B438">
+        <v>62</v>
+      </c>
+      <c r="C438">
+        <v>57</v>
+      </c>
+      <c r="D438">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A439">
+        <v>2</v>
+      </c>
+      <c r="B439">
+        <v>63</v>
+      </c>
+      <c r="C439">
+        <v>74</v>
+      </c>
+      <c r="D439">
+        <v>3.6019999999999999</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A440">
+        <v>2</v>
+      </c>
+      <c r="B440">
+        <v>64</v>
+      </c>
+      <c r="C440">
+        <v>59</v>
+      </c>
+      <c r="D440">
+        <v>2.4729999999999999</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A441">
+        <v>2</v>
+      </c>
+      <c r="B441">
+        <v>65</v>
+      </c>
+      <c r="C441">
+        <v>73</v>
+      </c>
+      <c r="D441">
+        <v>3.528</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A442">
+        <v>2</v>
+      </c>
+      <c r="B442">
+        <v>66</v>
+      </c>
+      <c r="C442">
+        <v>16</v>
+      </c>
+      <c r="D442">
+        <v>2.492</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A443">
+        <v>2</v>
+      </c>
+      <c r="B443">
+        <v>67</v>
+      </c>
+      <c r="C443">
+        <v>163</v>
+      </c>
+      <c r="D443">
+        <v>4.3209999999999997</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A444">
+        <v>2</v>
+      </c>
+      <c r="B444">
+        <v>68</v>
+      </c>
+      <c r="C444">
+        <v>224</v>
+      </c>
+      <c r="D444">
+        <v>5.181</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A445">
+        <v>2</v>
+      </c>
+      <c r="B445">
+        <v>69</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+      <c r="D445">
+        <v>2.4820000000000002</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A446">
+        <v>2</v>
+      </c>
+      <c r="B446">
+        <v>70</v>
+      </c>
+      <c r="C446">
+        <v>92</v>
+      </c>
+      <c r="D446">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A447">
+        <v>2</v>
+      </c>
+      <c r="B447">
+        <v>71</v>
+      </c>
+      <c r="C447">
+        <v>56</v>
+      </c>
+      <c r="D447">
+        <v>2.6320000000000001</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A448">
+        <v>2</v>
+      </c>
+      <c r="B448">
+        <v>72</v>
+      </c>
+      <c r="C448">
+        <v>7</v>
+      </c>
+      <c r="D448">
+        <v>2.512</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A449">
+        <v>2</v>
+      </c>
+      <c r="B449">
+        <v>73</v>
+      </c>
+      <c r="C449">
+        <v>38</v>
+      </c>
+      <c r="D449">
+        <v>2.4489999999999998</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A450">
+        <v>2</v>
+      </c>
+      <c r="B450">
+        <v>74</v>
+      </c>
+      <c r="C450">
+        <v>30</v>
+      </c>
+      <c r="D450">
+        <v>2.5049999999999999</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A451">
+        <v>2</v>
+      </c>
+      <c r="B451">
+        <v>75</v>
+      </c>
+      <c r="C451">
+        <v>0</v>
+      </c>
+      <c r="D451">
+        <v>2.5259999999999998</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A452">
+        <v>2</v>
+      </c>
+      <c r="B452">
+        <v>76</v>
+      </c>
+      <c r="C452">
+        <v>257</v>
+      </c>
+      <c r="D452">
+        <v>8.2720000000000002</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A453">
+        <v>2</v>
+      </c>
+      <c r="B453">
+        <v>77</v>
+      </c>
+      <c r="C453">
+        <v>68</v>
+      </c>
+      <c r="D453">
+        <v>2.524</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A454">
+        <v>2</v>
+      </c>
+      <c r="B454">
+        <v>78</v>
+      </c>
+      <c r="C454">
+        <v>15</v>
+      </c>
+      <c r="D454">
+        <v>2.476</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A455">
+        <v>2</v>
+      </c>
+      <c r="B455">
+        <v>79</v>
+      </c>
+      <c r="C455">
+        <v>31</v>
+      </c>
+      <c r="D455">
+        <v>2.4969999999999999</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A456">
+        <v>2</v>
+      </c>
+      <c r="B456">
+        <v>80</v>
+      </c>
+      <c r="C456">
+        <v>0</v>
+      </c>
+      <c r="D456">
+        <v>2.4710000000000001</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A457">
+        <v>2</v>
+      </c>
+      <c r="B457">
+        <v>81</v>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+      <c r="D457">
+        <v>2.512</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A458">
+        <v>2</v>
+      </c>
+      <c r="B458">
+        <v>82</v>
+      </c>
+      <c r="C458">
+        <v>179</v>
+      </c>
+      <c r="D458">
+        <v>4.8540000000000001</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A459">
+        <v>2</v>
+      </c>
+      <c r="B459">
+        <v>83</v>
+      </c>
+      <c r="C459">
+        <v>58</v>
+      </c>
+      <c r="D459">
+        <v>2.6739999999999999</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A460">
+        <v>2</v>
+      </c>
+      <c r="B460">
+        <v>84</v>
+      </c>
+      <c r="C460">
+        <v>1</v>
+      </c>
+      <c r="D460">
+        <v>2.4609999999999999</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A461">
+        <v>2</v>
+      </c>
+      <c r="B461">
+        <v>85</v>
+      </c>
+      <c r="C461">
+        <v>303</v>
+      </c>
+      <c r="D461">
+        <v>5.5149999999999997</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A462">
+        <v>2</v>
+      </c>
+      <c r="B462">
+        <v>86</v>
+      </c>
+      <c r="C462">
+        <v>153</v>
+      </c>
+      <c r="D462">
+        <v>3.1709999999999998</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A463">
+        <v>2</v>
+      </c>
+      <c r="B463">
+        <v>87</v>
+      </c>
+      <c r="C463">
+        <v>79</v>
+      </c>
+      <c r="D463">
+        <v>2.5019999999999998</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A464">
+        <v>2</v>
+      </c>
+      <c r="B464">
+        <v>88</v>
+      </c>
+      <c r="C464">
+        <v>0</v>
+      </c>
+      <c r="D464">
+        <v>2.488</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A465">
+        <v>2</v>
+      </c>
+      <c r="B465">
+        <v>89</v>
+      </c>
+      <c r="C465">
+        <v>74</v>
+      </c>
+      <c r="D465">
+        <v>5.3780000000000001</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A466">
+        <v>2</v>
+      </c>
+      <c r="B466">
+        <v>90</v>
+      </c>
+      <c r="C466">
+        <v>136</v>
+      </c>
+      <c r="D466">
+        <v>3.9780000000000002</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A467">
+        <v>2</v>
+      </c>
+      <c r="B467">
+        <v>91</v>
+      </c>
+      <c r="C467">
+        <v>41</v>
+      </c>
+      <c r="D467">
+        <v>2.4809999999999999</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A468">
+        <v>2</v>
+      </c>
+      <c r="B468">
+        <v>92</v>
+      </c>
+      <c r="C468">
+        <v>0</v>
+      </c>
+      <c r="D468">
+        <v>2.5470000000000002</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A469">
+        <v>2</v>
+      </c>
+      <c r="B469">
+        <v>93</v>
+      </c>
+      <c r="C469">
+        <v>0</v>
+      </c>
+      <c r="D469">
+        <v>2.597</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A470">
+        <v>2</v>
+      </c>
+      <c r="B470">
+        <v>94</v>
+      </c>
+      <c r="C470">
+        <v>6</v>
+      </c>
+      <c r="D470">
+        <v>2.4670000000000001</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A471">
+        <v>2</v>
+      </c>
+      <c r="B471">
+        <v>95</v>
+      </c>
+      <c r="C471">
+        <v>25</v>
+      </c>
+      <c r="D471">
+        <v>2.4809999999999999</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A472">
+        <v>2</v>
+      </c>
+      <c r="B472">
+        <v>96</v>
+      </c>
+      <c r="C472">
+        <v>0</v>
+      </c>
+      <c r="D472">
+        <v>2.472</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A473">
+        <v>2</v>
+      </c>
+      <c r="B473">
+        <v>97</v>
+      </c>
+      <c r="C473">
+        <v>0</v>
+      </c>
+      <c r="D473">
+        <v>2.6419999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>